--- a/Shablon/MSO-X4104A.xlsx
+++ b/Shablon/MSO-X4104A.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ITL\MEASControl\Shablon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\my_doc\ITL\MEASControl\Shablon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,21 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="222">
-  <si>
-    <t>125424, г. Москва, Волоколамское шоссе, дом 90, стр. 23</t>
-  </si>
-  <si>
-    <t>СГМетр, лаборатория средств электрорадиотехнических измерений</t>
-  </si>
-  <si>
-    <t>Аттестат аккредитации № РОСС СОБ 3.00231.2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АО "Гос МКБ "Вымпел" им. И.И. Торопова </t>
-  </si>
-  <si>
-    <t>Тел. +7 (495) 491-05-31, 22-68, e-mail ogmetr@vympelmkb.com</t>
-  </si>
   <si>
     <t>3 Определение метрологических характеристик</t>
   </si>
@@ -847,6 +832,21 @@
   <si>
     <t>2 Опробование (п. 7.3): соответствует</t>
   </si>
+  <si>
+    <t>АО "Гос МКБ "Вымпел" им. И.И. Торопова"</t>
+  </si>
+  <si>
+    <t>СГМетр, лаборатория средств электрических и радиотехнических измерений</t>
+  </si>
+  <si>
+    <t>125424, г.Москва, Волоколамское шоссе, дом 90, стр. 23</t>
+  </si>
+  <si>
+    <t>Уникальный номер об аккредитации в реестре акредитованных лиц № РОСС СОБ 3.00231.2014</t>
+  </si>
+  <si>
+    <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
+  </si>
 </sst>
 </file>
 
@@ -855,7 +855,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -863,6 +863,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -922,6 +924,13 @@
       <b/>
       <i/>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -1080,7 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1207,22 +1216,106 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1234,21 +1327,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1264,74 +1342,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J206"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A160" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection sqref="A1:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1682,74 +1697,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="A1" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
+      <c r="A2" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
+      <c r="A3" s="92" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="A4" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="A5" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1763,32 +1778,32 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="89" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+      <c r="A7" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
+      <c r="A8" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1803,11 +1818,11 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="82" t="s">
-        <v>219</v>
-      </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1830,7 +1845,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1855,12 +1870,12 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
+      <c r="A14" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -1869,90 +1884,90 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="55"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="53" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="83"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="83" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="83"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="83" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="83"/>
-    </row>
-    <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="83"/>
-    </row>
-    <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="83" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="83"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1968,7 +1983,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1994,7 +2009,7 @@
     </row>
     <row r="25" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="7"/>
@@ -2020,7 +2035,7 @@
     </row>
     <row r="27" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -2045,17 +2060,17 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
+      <c r="A29" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" s="19" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2072,7 +2087,7 @@
     </row>
     <row r="31" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2086,7 +2101,7 @@
     </row>
     <row r="32" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2112,7 +2127,7 @@
     </row>
     <row r="34" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2137,289 +2152,289 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="52"/>
+      <c r="A36" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="58"/>
+      <c r="C36" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="58"/>
       <c r="E36" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="59"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B37" s="49"/>
       <c r="C37" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F37" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G37" s="49"/>
-      <c r="H37" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="50"/>
+      <c r="H37" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="51"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B38" s="49"/>
-      <c r="C38" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="60"/>
+      <c r="C38" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="50"/>
       <c r="E38" s="46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G38" s="49"/>
-      <c r="H38" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="50"/>
+      <c r="H38" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="51"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G39" s="49"/>
       <c r="H39" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I39" s="49"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G40" s="49"/>
       <c r="H40" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I40" s="49"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B41" s="49"/>
-      <c r="C41" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="60"/>
+      <c r="C41" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="50"/>
       <c r="E41" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F41" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G41" s="49"/>
       <c r="H41" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I41" s="49"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B42" s="49"/>
       <c r="C42" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="46" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F42" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G42" s="49"/>
       <c r="H42" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I42" s="49"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B43" s="49"/>
       <c r="C43" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F43" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G43" s="49"/>
       <c r="H43" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I43" s="49"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B44" s="49"/>
       <c r="C44" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="46" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F44" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G44" s="49"/>
       <c r="H44" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I44" s="49"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B45" s="49"/>
       <c r="C45" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="46" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G45" s="49"/>
-      <c r="H45" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="50"/>
+      <c r="H45" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="51"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B46" s="49"/>
       <c r="C46" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" s="60"/>
+        <v>108</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="50"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B47" s="49"/>
       <c r="C47" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="46" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F47" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G47" s="49"/>
-      <c r="H47" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I47" s="50"/>
+      <c r="H47" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="51"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B48" s="49"/>
       <c r="C48" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="46" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F48" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G48" s="49"/>
-      <c r="H48" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I48" s="50"/>
+      <c r="H48" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I48" s="51"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2436,7 +2451,7 @@
     </row>
     <row r="50" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2461,311 +2476,311 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="52"/>
+      <c r="A52" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="58"/>
+      <c r="C52" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="58"/>
       <c r="E52" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="55"/>
+      <c r="H52" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="59"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B53" s="49"/>
       <c r="C53" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="46" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F53" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G53" s="49"/>
-      <c r="H53" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I53" s="50"/>
+      <c r="H53" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="51"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B54" s="49"/>
-      <c r="C54" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="60"/>
+      <c r="C54" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="50"/>
       <c r="E54" s="46" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F54" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G54" s="49"/>
-      <c r="H54" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I54" s="50"/>
+      <c r="H54" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54" s="51"/>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B55" s="49"/>
       <c r="C55" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="46" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F55" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G55" s="49"/>
       <c r="H55" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I55" s="49"/>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="46" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F56" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G56" s="49"/>
       <c r="H56" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I56" s="49"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B57" s="49"/>
-      <c r="C57" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="60"/>
+      <c r="C57" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="50"/>
       <c r="E57" s="46" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G57" s="49"/>
       <c r="H57" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I57" s="49"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B58" s="49"/>
       <c r="C58" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F58" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G58" s="49"/>
       <c r="H58" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I58" s="49"/>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B59" s="49"/>
       <c r="C59" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D59" s="49"/>
       <c r="E59" s="46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F59" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G59" s="49"/>
       <c r="H59" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I59" s="49"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B60" s="49"/>
       <c r="C60" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D60" s="49"/>
       <c r="E60" s="46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F60" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G60" s="49"/>
       <c r="H60" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I60" s="49"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="52"/>
+      <c r="A61" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="58"/>
+      <c r="C61" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="58"/>
       <c r="E61" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" s="53"/>
-      <c r="H61" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F61" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="55"/>
+      <c r="H61" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61" s="59"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B62" s="49"/>
       <c r="C62" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D62" s="49"/>
       <c r="E62" s="46" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F62" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G62" s="49"/>
-      <c r="H62" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I62" s="50"/>
+      <c r="H62" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I62" s="51"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B63" s="49"/>
       <c r="C63" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I63" s="60"/>
+        <v>119</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" s="50"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B64" s="49"/>
       <c r="C64" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D64" s="49"/>
       <c r="E64" s="46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F64" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G64" s="49"/>
-      <c r="H64" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I64" s="50"/>
+      <c r="H64" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="51"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B65" s="49"/>
       <c r="C65" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D65" s="49"/>
       <c r="E65" s="46" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G65" s="49"/>
-      <c r="H65" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I65" s="50"/>
+      <c r="H65" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I65" s="51"/>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2782,7 +2797,7 @@
     </row>
     <row r="67" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2807,289 +2822,289 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="52"/>
+      <c r="A69" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="58"/>
+      <c r="C69" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="58"/>
       <c r="E69" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="53"/>
-      <c r="H69" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="55"/>
+      <c r="H69" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="59"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B70" s="49"/>
       <c r="C70" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D70" s="49"/>
       <c r="E70" s="46" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F70" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G70" s="49"/>
-      <c r="H70" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I70" s="50"/>
+      <c r="H70" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="51"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="60"/>
+      <c r="C71" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="50"/>
       <c r="E71" s="46" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F71" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G71" s="49"/>
-      <c r="H71" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I71" s="50"/>
+      <c r="H71" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I71" s="51"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B72" s="49"/>
       <c r="C72" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D72" s="49"/>
       <c r="E72" s="46" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F72" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G72" s="49"/>
       <c r="H72" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I72" s="49"/>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B73" s="49"/>
       <c r="C73" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D73" s="49"/>
       <c r="E73" s="46" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F73" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G73" s="49"/>
       <c r="H73" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I73" s="49"/>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B74" s="49"/>
-      <c r="C74" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" s="60"/>
+      <c r="C74" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="50"/>
       <c r="E74" s="46" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F74" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G74" s="49"/>
       <c r="H74" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I74" s="49"/>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B75" s="49"/>
       <c r="C75" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D75" s="49"/>
       <c r="E75" s="46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F75" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G75" s="49"/>
       <c r="H75" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I75" s="49"/>
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B76" s="49"/>
       <c r="C76" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="46" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F76" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G76" s="49"/>
       <c r="H76" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I76" s="49"/>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B77" s="49"/>
       <c r="C77" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F77" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G77" s="49"/>
       <c r="H77" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I77" s="49"/>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B78" s="49"/>
       <c r="C78" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D78" s="49"/>
       <c r="E78" s="46" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F78" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G78" s="49"/>
-      <c r="H78" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I78" s="50"/>
+      <c r="H78" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="51"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B79" s="49"/>
       <c r="C79" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D79" s="49"/>
       <c r="E79" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="F79" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I79" s="60"/>
+        <v>130</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" s="50"/>
+      <c r="H79" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" s="50"/>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B80" s="49"/>
       <c r="C80" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="46" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F80" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G80" s="49"/>
-      <c r="H80" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I80" s="50"/>
+      <c r="H80" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="51"/>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B81" s="49"/>
       <c r="C81" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D81" s="49"/>
       <c r="E81" s="46" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F81" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G81" s="49"/>
-      <c r="H81" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I81" s="50"/>
+      <c r="H81" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I81" s="51"/>
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3106,7 +3121,7 @@
     </row>
     <row r="83" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3131,289 +3146,289 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85" s="52"/>
-      <c r="C85" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D85" s="52"/>
+      <c r="A85" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" s="58"/>
+      <c r="C85" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D85" s="58"/>
       <c r="E85" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="53"/>
-      <c r="H85" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F85" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="55"/>
+      <c r="H85" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="59"/>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B86" s="49"/>
       <c r="C86" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D86" s="49"/>
       <c r="E86" s="46" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F86" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G86" s="49"/>
-      <c r="H86" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="50"/>
+      <c r="H86" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" s="51"/>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B87" s="49"/>
-      <c r="C87" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D87" s="60"/>
+      <c r="C87" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="50"/>
       <c r="E87" s="46" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F87" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G87" s="49"/>
-      <c r="H87" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I87" s="50"/>
+      <c r="H87" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I87" s="51"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B88" s="49"/>
       <c r="C88" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D88" s="49"/>
       <c r="E88" s="46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F88" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G88" s="49"/>
       <c r="H88" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I88" s="49"/>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B89" s="49"/>
       <c r="C89" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D89" s="49"/>
       <c r="E89" s="46" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F89" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G89" s="49"/>
       <c r="H89" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I89" s="49"/>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B90" s="49"/>
-      <c r="C90" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="60"/>
+      <c r="C90" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D90" s="50"/>
       <c r="E90" s="46" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F90" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G90" s="49"/>
       <c r="H90" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I90" s="49"/>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B91" s="49"/>
       <c r="C91" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D91" s="49"/>
       <c r="E91" s="46" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F91" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G91" s="49"/>
       <c r="H91" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I91" s="49"/>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B92" s="49"/>
       <c r="C92" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D92" s="49"/>
       <c r="E92" s="46" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F92" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G92" s="49"/>
       <c r="H92" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I92" s="49"/>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B93" s="49"/>
       <c r="C93" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D93" s="49"/>
       <c r="E93" s="46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F93" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G93" s="49"/>
       <c r="H93" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I93" s="49"/>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B94" s="49"/>
       <c r="C94" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D94" s="49"/>
       <c r="E94" s="46" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F94" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G94" s="49"/>
-      <c r="H94" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I94" s="50"/>
+      <c r="H94" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" s="51"/>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B95" s="49"/>
       <c r="C95" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D95" s="49"/>
       <c r="E95" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="F95" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G95" s="60"/>
-      <c r="H95" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I95" s="60"/>
+        <v>141</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I95" s="50"/>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B96" s="49"/>
       <c r="C96" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D96" s="49"/>
       <c r="E96" s="46" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F96" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G96" s="49"/>
-      <c r="H96" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I96" s="50"/>
+      <c r="H96" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="51"/>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B97" s="49"/>
       <c r="C97" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D97" s="49"/>
       <c r="E97" s="46" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F97" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G97" s="49"/>
-      <c r="H97" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I97" s="50"/>
+      <c r="H97" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I97" s="51"/>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3429,18 +3444,18 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="59"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="59"/>
-      <c r="E99" s="59"/>
-      <c r="F99" s="59"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="59"/>
-      <c r="I99" s="59"/>
-      <c r="J99" s="59"/>
+      <c r="A99" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B99" s="71"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
+      <c r="I99" s="71"/>
+      <c r="J99" s="71"/>
     </row>
     <row r="100" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="32"/>
@@ -3456,7 +3471,7 @@
     </row>
     <row r="101" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3481,311 +3496,311 @@
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D103" s="52"/>
+      <c r="A103" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B103" s="58"/>
+      <c r="C103" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" s="58"/>
       <c r="E103" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" s="53"/>
-      <c r="H103" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I103" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F103" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="55"/>
+      <c r="H103" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" s="59"/>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B104" s="49"/>
       <c r="C104" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D104" s="49"/>
       <c r="E104" s="46" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F104" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G104" s="49"/>
-      <c r="H104" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I104" s="50"/>
+      <c r="H104" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" s="51"/>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B105" s="49"/>
-      <c r="C105" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="60"/>
+      <c r="C105" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="50"/>
       <c r="E105" s="46" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F105" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G105" s="49"/>
-      <c r="H105" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I105" s="50"/>
+      <c r="H105" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I105" s="51"/>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B106" s="49"/>
       <c r="C106" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D106" s="49"/>
       <c r="E106" s="46" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F106" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G106" s="49"/>
       <c r="H106" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I106" s="49"/>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B107" s="49"/>
       <c r="C107" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D107" s="49"/>
       <c r="E107" s="46" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F107" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G107" s="49"/>
       <c r="H107" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I107" s="49"/>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B108" s="49"/>
-      <c r="C108" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D108" s="60"/>
+      <c r="C108" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="50"/>
       <c r="E108" s="46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F108" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G108" s="49"/>
       <c r="H108" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I108" s="49"/>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B109" s="52"/>
-      <c r="C109" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D109" s="52"/>
+      <c r="A109" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" s="58"/>
+      <c r="C109" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109" s="58"/>
       <c r="E109" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="53"/>
-      <c r="H109" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I109" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F109" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="55"/>
+      <c r="H109" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" s="59"/>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B110" s="49"/>
       <c r="C110" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D110" s="49"/>
       <c r="E110" s="46" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F110" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G110" s="49"/>
       <c r="H110" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I110" s="49"/>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B111" s="49"/>
       <c r="C111" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D111" s="49"/>
       <c r="E111" s="46" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F111" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G111" s="49"/>
       <c r="H111" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I111" s="49"/>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B112" s="49"/>
       <c r="C112" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D112" s="49"/>
       <c r="E112" s="46" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F112" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G112" s="49"/>
       <c r="H112" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I112" s="49"/>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B113" s="49"/>
       <c r="C113" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D113" s="49"/>
       <c r="E113" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F113" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G113" s="49"/>
-      <c r="H113" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I113" s="50"/>
+      <c r="H113" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I113" s="51"/>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B114" s="49"/>
       <c r="C114" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D114" s="49"/>
       <c r="E114" s="46" t="s">
-        <v>173</v>
-      </c>
-      <c r="F114" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I114" s="60"/>
+        <v>168</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G114" s="50"/>
+      <c r="H114" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I114" s="50"/>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B115" s="49"/>
       <c r="C115" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D115" s="49"/>
       <c r="E115" s="46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F115" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G115" s="49"/>
-      <c r="H115" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I115" s="50"/>
+      <c r="H115" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="51"/>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B116" s="49"/>
       <c r="C116" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D116" s="49"/>
       <c r="E116" s="46" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F116" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G116" s="49"/>
-      <c r="H116" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I116" s="50"/>
+      <c r="H116" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I116" s="51"/>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3802,7 +3817,7 @@
     </row>
     <row r="118" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -3827,289 +3842,289 @@
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B120" s="52"/>
-      <c r="C120" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D120" s="52"/>
+      <c r="A120" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="58"/>
+      <c r="C120" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" s="58"/>
       <c r="E120" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F120" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" s="53"/>
-      <c r="H120" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I120" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F120" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="55"/>
+      <c r="H120" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" s="59"/>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B121" s="49"/>
       <c r="C121" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D121" s="49"/>
       <c r="E121" s="46" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F121" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G121" s="49"/>
-      <c r="H121" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I121" s="50"/>
+      <c r="H121" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I121" s="51"/>
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B122" s="49"/>
-      <c r="C122" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" s="60"/>
+      <c r="C122" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="50"/>
       <c r="E122" s="46" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F122" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G122" s="49"/>
-      <c r="H122" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I122" s="50"/>
+      <c r="H122" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I122" s="51"/>
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B123" s="49"/>
       <c r="C123" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D123" s="49"/>
       <c r="E123" s="46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F123" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G123" s="49"/>
       <c r="H123" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I123" s="49"/>
       <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B124" s="49"/>
       <c r="C124" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D124" s="49"/>
       <c r="E124" s="46" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F124" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G124" s="49"/>
       <c r="H124" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I124" s="49"/>
       <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B125" s="49"/>
-      <c r="C125" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D125" s="60"/>
+      <c r="C125" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="50"/>
       <c r="E125" s="46" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F125" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G125" s="49"/>
       <c r="H125" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I125" s="49"/>
       <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B126" s="49"/>
       <c r="C126" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D126" s="49"/>
       <c r="E126" s="46" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F126" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G126" s="49"/>
       <c r="H126" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I126" s="49"/>
       <c r="J126" s="3"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B127" s="49"/>
       <c r="C127" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D127" s="49"/>
       <c r="E127" s="46" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F127" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G127" s="49"/>
       <c r="H127" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I127" s="49"/>
       <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B128" s="49"/>
       <c r="C128" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D128" s="49"/>
       <c r="E128" s="46" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F128" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G128" s="49"/>
       <c r="H128" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I128" s="49"/>
       <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B129" s="49"/>
       <c r="C129" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D129" s="49"/>
       <c r="E129" s="46" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F129" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G129" s="49"/>
-      <c r="H129" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I129" s="50"/>
+      <c r="H129" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I129" s="51"/>
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B130" s="49"/>
       <c r="C130" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D130" s="49"/>
       <c r="E130" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="F130" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G130" s="60"/>
-      <c r="H130" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I130" s="60"/>
+        <v>179</v>
+      </c>
+      <c r="F130" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G130" s="50"/>
+      <c r="H130" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I130" s="50"/>
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B131" s="49"/>
       <c r="C131" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D131" s="49"/>
       <c r="E131" s="46" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F131" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G131" s="49"/>
-      <c r="H131" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I131" s="50"/>
+      <c r="H131" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="51"/>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B132" s="49"/>
       <c r="C132" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D132" s="49"/>
       <c r="E132" s="46" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F132" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G132" s="49"/>
-      <c r="H132" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I132" s="50"/>
+      <c r="H132" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I132" s="51"/>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4126,7 +4141,7 @@
     </row>
     <row r="134" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4151,289 +4166,289 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B136" s="52"/>
-      <c r="C136" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D136" s="52"/>
+      <c r="A136" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B136" s="58"/>
+      <c r="C136" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D136" s="58"/>
       <c r="E136" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F136" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" s="53"/>
-      <c r="H136" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F136" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="55"/>
+      <c r="H136" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" s="59"/>
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B137" s="49"/>
       <c r="C137" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D137" s="49"/>
       <c r="E137" s="46" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F137" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G137" s="49"/>
-      <c r="H137" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I137" s="50"/>
+      <c r="H137" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I137" s="51"/>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B138" s="49"/>
-      <c r="C138" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D138" s="60"/>
+      <c r="C138" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D138" s="50"/>
       <c r="E138" s="46" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F138" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G138" s="49"/>
-      <c r="H138" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I138" s="50"/>
+      <c r="H138" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I138" s="51"/>
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B139" s="49"/>
       <c r="C139" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D139" s="49"/>
       <c r="E139" s="46" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F139" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G139" s="49"/>
       <c r="H139" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I139" s="49"/>
       <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B140" s="49"/>
       <c r="C140" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D140" s="49"/>
       <c r="E140" s="46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F140" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G140" s="49"/>
       <c r="H140" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I140" s="49"/>
       <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B141" s="49"/>
-      <c r="C141" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D141" s="60"/>
+      <c r="C141" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="50"/>
       <c r="E141" s="46" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F141" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G141" s="49"/>
       <c r="H141" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I141" s="49"/>
       <c r="J141" s="3"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B142" s="49"/>
       <c r="C142" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D142" s="49"/>
       <c r="E142" s="46" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F142" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G142" s="49"/>
       <c r="H142" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I142" s="49"/>
       <c r="J142" s="3"/>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B143" s="49"/>
       <c r="C143" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D143" s="49"/>
       <c r="E143" s="46" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F143" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G143" s="49"/>
       <c r="H143" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I143" s="49"/>
       <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B144" s="49"/>
       <c r="C144" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D144" s="49"/>
       <c r="E144" s="46" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F144" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G144" s="49"/>
       <c r="H144" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I144" s="49"/>
       <c r="J144" s="3"/>
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B145" s="49"/>
       <c r="C145" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D145" s="49"/>
       <c r="E145" s="46" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F145" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G145" s="49"/>
-      <c r="H145" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I145" s="50"/>
+      <c r="H145" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I145" s="51"/>
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B146" s="49"/>
       <c r="C146" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D146" s="49"/>
       <c r="E146" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F146" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I146" s="60"/>
+        <v>190</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G146" s="50"/>
+      <c r="H146" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I146" s="50"/>
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B147" s="49"/>
       <c r="C147" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D147" s="49"/>
       <c r="E147" s="46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F147" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G147" s="49"/>
-      <c r="H147" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I147" s="50"/>
+      <c r="H147" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I147" s="51"/>
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B148" s="49"/>
       <c r="C148" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D148" s="49"/>
       <c r="E148" s="46" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F148" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G148" s="49"/>
-      <c r="H148" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I148" s="50"/>
+      <c r="H148" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I148" s="51"/>
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4450,7 +4465,7 @@
     </row>
     <row r="150" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4475,311 +4490,311 @@
       <c r="J151" s="3"/>
     </row>
     <row r="152" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B152" s="52"/>
-      <c r="C152" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D152" s="52"/>
+      <c r="A152" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="58"/>
+      <c r="C152" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D152" s="58"/>
       <c r="E152" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F152" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" s="53"/>
-      <c r="H152" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I152" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F152" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="55"/>
+      <c r="H152" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" s="59"/>
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="49" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B153" s="49"/>
       <c r="C153" s="49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D153" s="49"/>
       <c r="E153" s="46" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F153" s="49" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G153" s="49"/>
-      <c r="H153" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="I153" s="50"/>
+      <c r="H153" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I153" s="51"/>
       <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B154" s="49"/>
-      <c r="C154" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D154" s="60"/>
+      <c r="C154" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="50"/>
       <c r="E154" s="46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F154" s="49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G154" s="49"/>
-      <c r="H154" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="I154" s="50"/>
+      <c r="H154" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="I154" s="51"/>
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="49" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B155" s="49"/>
       <c r="C155" s="49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D155" s="49"/>
       <c r="E155" s="46" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F155" s="49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G155" s="49"/>
       <c r="H155" s="49" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I155" s="49"/>
       <c r="J155" s="3"/>
     </row>
     <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B156" s="49"/>
       <c r="C156" s="49" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D156" s="49"/>
       <c r="E156" s="46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F156" s="49" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G156" s="49"/>
       <c r="H156" s="49" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I156" s="49"/>
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="B157" s="52"/>
-      <c r="C157" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D157" s="52"/>
+      <c r="A157" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B157" s="58"/>
+      <c r="C157" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D157" s="58"/>
       <c r="E157" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F157" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" s="53"/>
-      <c r="H157" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I157" s="54"/>
+        <v>11</v>
+      </c>
+      <c r="F157" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="55"/>
+      <c r="H157" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" s="59"/>
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="49" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B158" s="49"/>
-      <c r="C158" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D158" s="60"/>
+      <c r="C158" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" s="50"/>
       <c r="E158" s="46" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F158" s="49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G158" s="49"/>
       <c r="H158" s="49" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I158" s="49"/>
       <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="49" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B159" s="49"/>
       <c r="C159" s="49" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D159" s="49"/>
       <c r="E159" s="46" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F159" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G159" s="49"/>
       <c r="H159" s="49" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I159" s="49"/>
       <c r="J159" s="3"/>
     </row>
     <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="49" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B160" s="49"/>
       <c r="C160" s="49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D160" s="49"/>
       <c r="E160" s="46" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F160" s="49" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G160" s="49"/>
       <c r="H160" s="49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I160" s="49"/>
       <c r="J160" s="3"/>
     </row>
     <row r="161" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="49" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B161" s="49"/>
       <c r="C161" s="49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D161" s="49"/>
       <c r="E161" s="46" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F161" s="49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G161" s="49"/>
       <c r="H161" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I161" s="49"/>
       <c r="J161" s="3"/>
     </row>
     <row r="162" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="49" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B162" s="49"/>
       <c r="C162" s="49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D162" s="49"/>
       <c r="E162" s="46" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F162" s="49" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G162" s="49"/>
-      <c r="H162" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I162" s="50"/>
+      <c r="H162" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="I162" s="51"/>
       <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="49" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B163" s="49"/>
       <c r="C163" s="49" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D163" s="49"/>
       <c r="E163" s="46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F163" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="G163" s="60"/>
-      <c r="H163" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="I163" s="60"/>
+        <v>201</v>
+      </c>
+      <c r="F163" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G163" s="50"/>
+      <c r="H163" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I163" s="50"/>
       <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="49" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B164" s="49"/>
       <c r="C164" s="49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D164" s="49"/>
       <c r="E164" s="46" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F164" s="49" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G164" s="49"/>
-      <c r="H164" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="I164" s="50"/>
+      <c r="H164" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="I164" s="51"/>
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="49" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B165" s="49"/>
       <c r="C165" s="49" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D165" s="49"/>
       <c r="E165" s="46" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F165" s="49" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G165" s="49"/>
-      <c r="H165" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="I165" s="50"/>
+      <c r="H165" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="I165" s="51"/>
       <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4795,13 +4810,13 @@
       <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B167" s="59"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="59"/>
-      <c r="E167" s="59"/>
+      <c r="A167" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B167" s="71"/>
+      <c r="C167" s="71"/>
+      <c r="D167" s="71"/>
+      <c r="E167" s="71"/>
       <c r="F167" s="32"/>
       <c r="G167" s="32"/>
       <c r="H167" s="24"/>
@@ -4822,90 +4837,90 @@
     </row>
     <row r="169" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B169" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C169" s="52"/>
-      <c r="D169" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E169" s="53"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="H169" s="53"/>
-      <c r="I169" s="53"/>
+        <v>207</v>
+      </c>
+      <c r="B169" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C169" s="58"/>
+      <c r="D169" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E169" s="55"/>
+      <c r="F169" s="55"/>
+      <c r="G169" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" s="55"/>
+      <c r="I169" s="55"/>
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44">
         <v>1</v>
       </c>
-      <c r="B170" s="69">
+      <c r="B170" s="72">
         <v>1000</v>
       </c>
-      <c r="C170" s="70"/>
-      <c r="D170" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E170" s="62"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="69">
+      <c r="C170" s="73"/>
+      <c r="D170" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E170" s="81"/>
+      <c r="F170" s="82"/>
+      <c r="G170" s="72">
         <v>-3</v>
       </c>
-      <c r="H170" s="75"/>
-      <c r="I170" s="70"/>
+      <c r="H170" s="78"/>
+      <c r="I170" s="73"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <v>2</v>
       </c>
-      <c r="B171" s="71"/>
-      <c r="C171" s="72"/>
-      <c r="D171" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="E171" s="62"/>
-      <c r="F171" s="63"/>
-      <c r="G171" s="71"/>
-      <c r="H171" s="76"/>
-      <c r="I171" s="72"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="75"/>
+      <c r="D171" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E171" s="81"/>
+      <c r="F171" s="82"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="52"/>
+      <c r="I171" s="75"/>
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44">
         <v>3</v>
       </c>
-      <c r="B172" s="71"/>
-      <c r="C172" s="72"/>
-      <c r="D172" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="E172" s="62"/>
-      <c r="F172" s="63"/>
-      <c r="G172" s="71"/>
-      <c r="H172" s="76"/>
-      <c r="I172" s="72"/>
+      <c r="B172" s="74"/>
+      <c r="C172" s="75"/>
+      <c r="D172" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E172" s="81"/>
+      <c r="F172" s="82"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="52"/>
+      <c r="I172" s="75"/>
       <c r="J172" s="33"/>
     </row>
     <row r="173" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44">
         <v>4</v>
       </c>
-      <c r="B173" s="73"/>
-      <c r="C173" s="74"/>
-      <c r="D173" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E173" s="62"/>
-      <c r="F173" s="63"/>
-      <c r="G173" s="73"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="74"/>
+      <c r="B173" s="76"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="E173" s="81"/>
+      <c r="F173" s="82"/>
+      <c r="G173" s="76"/>
+      <c r="H173" s="79"/>
+      <c r="I173" s="77"/>
       <c r="J173" s="3"/>
     </row>
     <row r="174" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4922,41 +4937,41 @@
     </row>
     <row r="175" spans="1:10" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B176" s="64"/>
-      <c r="C176" s="52"/>
-      <c r="D176" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E176" s="64"/>
-      <c r="F176" s="52"/>
-      <c r="G176" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H176" s="64"/>
-      <c r="I176" s="52"/>
+      <c r="A176" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B176" s="87"/>
+      <c r="C176" s="58"/>
+      <c r="D176" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E176" s="87"/>
+      <c r="F176" s="58"/>
+      <c r="G176" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="H176" s="87"/>
+      <c r="I176" s="58"/>
       <c r="J176" s="38"/>
     </row>
     <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="65">
+      <c r="A177" s="88">
         <v>10000000</v>
       </c>
-      <c r="B177" s="66"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="66"/>
-      <c r="F177" s="67"/>
-      <c r="G177" s="68">
+      <c r="B177" s="89"/>
+      <c r="C177" s="90"/>
+      <c r="D177" s="91"/>
+      <c r="E177" s="89"/>
+      <c r="F177" s="90"/>
+      <c r="G177" s="91">
         <v>100</v>
       </c>
-      <c r="H177" s="66"/>
-      <c r="I177" s="67"/>
+      <c r="H177" s="89"/>
+      <c r="I177" s="90"/>
       <c r="J177" s="38"/>
     </row>
     <row r="178" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4973,7 +4988,7 @@
     </row>
     <row r="179" spans="1:10" s="43" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="43" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5001,18 +5016,18 @@
       <c r="J181" s="38"/>
     </row>
     <row r="182" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="B182" s="59"/>
-      <c r="C182" s="59"/>
-      <c r="D182" s="59"/>
-      <c r="E182" s="59"/>
-      <c r="F182" s="59"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="59"/>
-      <c r="I182" s="59"/>
-      <c r="J182" s="59"/>
+      <c r="A182" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B182" s="71"/>
+      <c r="C182" s="71"/>
+      <c r="D182" s="71"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="71"/>
+      <c r="G182" s="71"/>
+      <c r="H182" s="71"/>
+      <c r="I182" s="71"/>
+      <c r="J182" s="71"/>
     </row>
     <row r="183" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="32"/>
@@ -5028,7 +5043,7 @@
     </row>
     <row r="184" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B184" s="26"/>
       <c r="C184" s="26"/>
@@ -5041,82 +5056,82 @@
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B185" s="81"/>
-      <c r="C185" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D185" s="53"/>
-      <c r="E185" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F185" s="53"/>
-      <c r="G185" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H185" s="53"/>
+      <c r="A185" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B185" s="69"/>
+      <c r="C185" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H185" s="55"/>
       <c r="I185" s="22"/>
       <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B186" s="81"/>
-      <c r="C186" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D186" s="78"/>
-      <c r="E186" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F186" s="53"/>
-      <c r="G186" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H186" s="79"/>
+      <c r="A186" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" s="69"/>
+      <c r="C186" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D186" s="54"/>
+      <c r="E186" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F186" s="55"/>
+      <c r="G186" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" s="56"/>
       <c r="I186" s="22"/>
       <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B187" s="81"/>
-      <c r="C187" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D187" s="78"/>
-      <c r="E187" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F187" s="53"/>
-      <c r="G187" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H187" s="79"/>
+      <c r="A187" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B187" s="69"/>
+      <c r="C187" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D187" s="54"/>
+      <c r="E187" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F187" s="55"/>
+      <c r="G187" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187" s="56"/>
       <c r="I187" s="22"/>
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="80" t="s">
+      <c r="A188" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B188" s="69"/>
+      <c r="C188" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D188" s="54"/>
+      <c r="E188" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F188" s="55"/>
+      <c r="G188" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B188" s="81"/>
-      <c r="C188" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D188" s="78"/>
-      <c r="E188" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F188" s="53"/>
-      <c r="G188" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H188" s="79"/>
+      <c r="H188" s="56"/>
       <c r="I188" s="22"/>
       <c r="J188" s="3"/>
     </row>
@@ -5133,7 +5148,7 @@
     </row>
     <row r="190" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B190" s="30"/>
       <c r="C190" s="26"/>
@@ -5157,103 +5172,103 @@
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="B192" s="81"/>
-      <c r="C192" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="D192" s="53"/>
-      <c r="E192" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="F192" s="53"/>
-      <c r="G192" s="53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H192" s="53"/>
+      <c r="A192" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" s="69"/>
+      <c r="C192" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F192" s="55"/>
+      <c r="G192" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H192" s="55"/>
       <c r="I192" s="25"/>
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="B193" s="81"/>
-      <c r="C193" s="78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D193" s="78"/>
-      <c r="E193" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="F193" s="53"/>
-      <c r="G193" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H193" s="79"/>
+      <c r="A193" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B193" s="69"/>
+      <c r="C193" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D193" s="54"/>
+      <c r="E193" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F193" s="55"/>
+      <c r="G193" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H193" s="56"/>
       <c r="I193" s="25"/>
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B194" s="81"/>
-      <c r="C194" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="D194" s="78"/>
-      <c r="E194" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="F194" s="53"/>
-      <c r="G194" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H194" s="79"/>
+      <c r="A194" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B194" s="69"/>
+      <c r="C194" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="D194" s="54"/>
+      <c r="E194" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F194" s="55"/>
+      <c r="G194" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="H194" s="56"/>
       <c r="I194" s="25"/>
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="80" t="s">
+      <c r="A195" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B195" s="69"/>
+      <c r="C195" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D195" s="54"/>
+      <c r="E195" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F195" s="55"/>
+      <c r="G195" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B195" s="81"/>
-      <c r="C195" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D195" s="78"/>
-      <c r="E195" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F195" s="53"/>
-      <c r="G195" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H195" s="79"/>
+      <c r="H195" s="56"/>
       <c r="I195" s="25"/>
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="35"/>
-      <c r="C196" s="76"/>
-      <c r="D196" s="76"/>
-      <c r="E196" s="76"/>
-      <c r="F196" s="76"/>
-      <c r="G196" s="91"/>
-      <c r="H196" s="91"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="53"/>
+      <c r="H196" s="53"/>
       <c r="I196" s="22"/>
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="B197" s="55"/>
+      <c r="A197" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B197" s="83"/>
       <c r="C197" s="47" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11"/>
@@ -5264,34 +5279,34 @@
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="B198" s="55"/>
+      <c r="A198" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B198" s="83"/>
       <c r="C198" s="42"/>
       <c r="D198" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E198" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="F198" s="57"/>
+        <v>146</v>
+      </c>
+      <c r="E198" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="F198" s="85"/>
       <c r="G198" s="38" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="B199" s="55"/>
-      <c r="C199" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D199" s="58"/>
+      <c r="A199" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B199" s="83"/>
+      <c r="C199" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D199" s="86"/>
       <c r="E199" s="3"/>
       <c r="F199" s="5"/>
       <c r="G199" s="3"/>
@@ -5314,35 +5329,467 @@
     <row r="206" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="514">
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="G177:I177"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="A99:J99"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="B170:C173"/>
+    <mergeCell ref="G170:I173"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="G169:I169"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A182:J182"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="C97:D97"/>
     <mergeCell ref="F97:G97"/>
@@ -5367,467 +5814,35 @@
     <mergeCell ref="C95:D95"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A182:J182"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="B170:C173"/>
-    <mergeCell ref="G170:I173"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="A99:J99"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>

--- a/Shablon/MSO-X4104A.xlsx
+++ b/Shablon/MSO-X4104A.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="225">
   <si>
     <t>3 Определение метрологических характеристик</t>
   </si>
@@ -846,6 +846,15 @@
   </si>
   <si>
     <t>Тел.+7 (495) 491-05-31, 22-68, e-mail: ogmetr@vympelmkb.com</t>
+  </si>
+  <si>
+    <t>_temp</t>
+  </si>
+  <si>
+    <t>_hum</t>
+  </si>
+  <si>
+    <t>_pres</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1098,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1216,136 +1225,139 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1684,7 +1696,7 @@
   <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection sqref="A1:J5"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1697,74 +1709,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="88" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="88" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
     </row>
     <row r="6" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -1778,32 +1790,32 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="90" t="s">
         <v>212</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
     </row>
     <row r="9" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1818,11 +1830,11 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1870,12 +1882,12 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
     </row>
     <row r="15" spans="1:10" s="3" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -1884,90 +1896,96 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:10" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="55" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55" t="s">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="55"/>
-    </row>
-    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66" t="s">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="94" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="94"/>
+      <c r="G17" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="66"/>
-    </row>
-    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="H17" s="83"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="94" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="66"/>
-    </row>
-    <row r="19" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62" t="s">
+      <c r="H18" s="83"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66" t="s">
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="94"/>
+      <c r="G19" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="66"/>
+      <c r="H19" s="83"/>
     </row>
     <row r="20" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66" t="s">
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="H20" s="66"/>
+      <c r="H20" s="83"/>
     </row>
     <row r="21" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="H21" s="66"/>
+      <c r="H21" s="83"/>
     </row>
     <row r="22" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -2060,17 +2078,17 @@
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" s="19" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2152,25 +2170,25 @@
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="57" t="s">
+      <c r="B36" s="52"/>
+      <c r="C36" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="58"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="59" t="s">
+      <c r="G36" s="53"/>
+      <c r="H36" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="59"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2189,10 +2207,10 @@
         <v>36</v>
       </c>
       <c r="G37" s="49"/>
-      <c r="H37" s="51" t="s">
+      <c r="H37" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="51"/>
+      <c r="I37" s="50"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2200,10 +2218,10 @@
         <v>15</v>
       </c>
       <c r="B38" s="49"/>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="50"/>
+      <c r="D38" s="55"/>
       <c r="E38" s="46" t="s">
         <v>100</v>
       </c>
@@ -2211,10 +2229,10 @@
         <v>37</v>
       </c>
       <c r="G38" s="49"/>
-      <c r="H38" s="51" t="s">
+      <c r="H38" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="51"/>
+      <c r="I38" s="50"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2266,10 +2284,10 @@
         <v>18</v>
       </c>
       <c r="B41" s="49"/>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="50"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="46" t="s">
         <v>103</v>
       </c>
@@ -2365,10 +2383,10 @@
         <v>44</v>
       </c>
       <c r="G45" s="49"/>
-      <c r="H45" s="51" t="s">
+      <c r="H45" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="51"/>
+      <c r="I45" s="50"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2383,14 +2401,14 @@
       <c r="E46" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50" t="s">
+      <c r="G46" s="55"/>
+      <c r="H46" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="50"/>
+      <c r="I46" s="55"/>
       <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2409,10 +2427,10 @@
         <v>46</v>
       </c>
       <c r="G47" s="49"/>
-      <c r="H47" s="51" t="s">
+      <c r="H47" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="51"/>
+      <c r="I47" s="50"/>
       <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2431,10 +2449,10 @@
         <v>155</v>
       </c>
       <c r="G48" s="49"/>
-      <c r="H48" s="51" t="s">
+      <c r="H48" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I48" s="51"/>
+      <c r="I48" s="50"/>
       <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,25 +2494,25 @@
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="57" t="s">
+      <c r="A52" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="57" t="s">
+      <c r="B52" s="52"/>
+      <c r="C52" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="58"/>
+      <c r="D52" s="52"/>
       <c r="E52" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="55" t="s">
+      <c r="F52" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="55"/>
-      <c r="H52" s="59" t="s">
+      <c r="G52" s="53"/>
+      <c r="H52" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="59"/>
+      <c r="I52" s="54"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2513,10 +2531,10 @@
         <v>36</v>
       </c>
       <c r="G53" s="49"/>
-      <c r="H53" s="51" t="s">
+      <c r="H53" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I53" s="51"/>
+      <c r="I53" s="50"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2524,10 +2542,10 @@
         <v>15</v>
       </c>
       <c r="B54" s="49"/>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="50"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="46" t="s">
         <v>111</v>
       </c>
@@ -2535,10 +2553,10 @@
         <v>37</v>
       </c>
       <c r="G54" s="49"/>
-      <c r="H54" s="51" t="s">
+      <c r="H54" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I54" s="51"/>
+      <c r="I54" s="50"/>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2590,10 +2608,10 @@
         <v>18</v>
       </c>
       <c r="B57" s="49"/>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="50"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="46" t="s">
         <v>114</v>
       </c>
@@ -2674,25 +2692,25 @@
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="58"/>
-      <c r="C61" s="57" t="s">
+      <c r="B61" s="52"/>
+      <c r="C61" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="58"/>
+      <c r="D61" s="52"/>
       <c r="E61" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="59" t="s">
+      <c r="G61" s="53"/>
+      <c r="H61" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="59"/>
+      <c r="I61" s="54"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2711,10 +2729,10 @@
         <v>44</v>
       </c>
       <c r="G62" s="49"/>
-      <c r="H62" s="51" t="s">
+      <c r="H62" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="51"/>
+      <c r="I62" s="50"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2729,14 +2747,14 @@
       <c r="E63" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="F63" s="50" t="s">
+      <c r="F63" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G63" s="50"/>
-      <c r="H63" s="50" t="s">
+      <c r="G63" s="55"/>
+      <c r="H63" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I63" s="50"/>
+      <c r="I63" s="55"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2755,10 +2773,10 @@
         <v>46</v>
       </c>
       <c r="G64" s="49"/>
-      <c r="H64" s="51" t="s">
+      <c r="H64" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="51"/>
+      <c r="I64" s="50"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2777,10 +2795,10 @@
         <v>155</v>
       </c>
       <c r="G65" s="49"/>
-      <c r="H65" s="51" t="s">
+      <c r="H65" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="51"/>
+      <c r="I65" s="50"/>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -2822,25 +2840,25 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="57" t="s">
+      <c r="B69" s="52"/>
+      <c r="C69" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="58"/>
+      <c r="D69" s="52"/>
       <c r="E69" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="55"/>
-      <c r="H69" s="59" t="s">
+      <c r="G69" s="53"/>
+      <c r="H69" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="59"/>
+      <c r="I69" s="54"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2859,10 +2877,10 @@
         <v>36</v>
       </c>
       <c r="G70" s="49"/>
-      <c r="H70" s="51" t="s">
+      <c r="H70" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I70" s="51"/>
+      <c r="I70" s="50"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2870,10 +2888,10 @@
         <v>15</v>
       </c>
       <c r="B71" s="49"/>
-      <c r="C71" s="50" t="s">
+      <c r="C71" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="50"/>
+      <c r="D71" s="55"/>
       <c r="E71" s="46" t="s">
         <v>122</v>
       </c>
@@ -2881,10 +2899,10 @@
         <v>37</v>
       </c>
       <c r="G71" s="49"/>
-      <c r="H71" s="51" t="s">
+      <c r="H71" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I71" s="51"/>
+      <c r="I71" s="50"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2936,10 +2954,10 @@
         <v>18</v>
       </c>
       <c r="B74" s="49"/>
-      <c r="C74" s="50" t="s">
+      <c r="C74" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="50"/>
+      <c r="D74" s="55"/>
       <c r="E74" s="46" t="s">
         <v>125</v>
       </c>
@@ -3035,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="G78" s="49"/>
-      <c r="H78" s="51" t="s">
+      <c r="H78" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I78" s="51"/>
+      <c r="I78" s="50"/>
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3053,14 +3071,14 @@
       <c r="E79" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G79" s="50"/>
-      <c r="H79" s="50" t="s">
+      <c r="G79" s="55"/>
+      <c r="H79" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I79" s="50"/>
+      <c r="I79" s="55"/>
       <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3079,10 +3097,10 @@
         <v>46</v>
       </c>
       <c r="G80" s="49"/>
-      <c r="H80" s="51" t="s">
+      <c r="H80" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I80" s="51"/>
+      <c r="I80" s="50"/>
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,10 +3119,10 @@
         <v>155</v>
       </c>
       <c r="G81" s="49"/>
-      <c r="H81" s="51" t="s">
+      <c r="H81" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I81" s="51"/>
+      <c r="I81" s="50"/>
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3146,25 +3164,25 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="57" t="s">
+      <c r="A85" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="57" t="s">
+      <c r="B85" s="52"/>
+      <c r="C85" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="58"/>
+      <c r="D85" s="52"/>
       <c r="E85" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="55" t="s">
+      <c r="F85" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="55"/>
-      <c r="H85" s="59" t="s">
+      <c r="G85" s="53"/>
+      <c r="H85" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I85" s="59"/>
+      <c r="I85" s="54"/>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3183,10 +3201,10 @@
         <v>36</v>
       </c>
       <c r="G86" s="49"/>
-      <c r="H86" s="51" t="s">
+      <c r="H86" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I86" s="51"/>
+      <c r="I86" s="50"/>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3194,10 +3212,10 @@
         <v>15</v>
       </c>
       <c r="B87" s="49"/>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="50"/>
+      <c r="D87" s="55"/>
       <c r="E87" s="46" t="s">
         <v>133</v>
       </c>
@@ -3205,10 +3223,10 @@
         <v>37</v>
       </c>
       <c r="G87" s="49"/>
-      <c r="H87" s="51" t="s">
+      <c r="H87" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I87" s="51"/>
+      <c r="I87" s="50"/>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3260,10 +3278,10 @@
         <v>18</v>
       </c>
       <c r="B90" s="49"/>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="50"/>
+      <c r="D90" s="55"/>
       <c r="E90" s="46" t="s">
         <v>136</v>
       </c>
@@ -3359,10 +3377,10 @@
         <v>44</v>
       </c>
       <c r="G94" s="49"/>
-      <c r="H94" s="51" t="s">
+      <c r="H94" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I94" s="51"/>
+      <c r="I94" s="50"/>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3377,14 +3395,14 @@
       <c r="E95" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="F95" s="50" t="s">
+      <c r="F95" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G95" s="50"/>
-      <c r="H95" s="50" t="s">
+      <c r="G95" s="55"/>
+      <c r="H95" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I95" s="50"/>
+      <c r="I95" s="55"/>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3403,10 +3421,10 @@
         <v>46</v>
       </c>
       <c r="G96" s="49"/>
-      <c r="H96" s="51" t="s">
+      <c r="H96" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I96" s="51"/>
+      <c r="I96" s="50"/>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3425,10 +3443,10 @@
         <v>155</v>
       </c>
       <c r="G97" s="49"/>
-      <c r="H97" s="51" t="s">
+      <c r="H97" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I97" s="51"/>
+      <c r="I97" s="50"/>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3444,18 +3462,18 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="71" t="s">
+      <c r="A99" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="B99" s="71"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="71"/>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71"/>
-      <c r="H99" s="71"/>
-      <c r="I99" s="71"/>
-      <c r="J99" s="71"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
     </row>
     <row r="100" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="32"/>
@@ -3496,25 +3514,25 @@
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="57" t="s">
+      <c r="A103" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B103" s="58"/>
-      <c r="C103" s="57" t="s">
+      <c r="B103" s="52"/>
+      <c r="C103" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D103" s="58"/>
+      <c r="D103" s="52"/>
       <c r="E103" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="55" t="s">
+      <c r="F103" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="55"/>
-      <c r="H103" s="59" t="s">
+      <c r="G103" s="53"/>
+      <c r="H103" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="59"/>
+      <c r="I103" s="54"/>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3533,10 +3551,10 @@
         <v>36</v>
       </c>
       <c r="G104" s="49"/>
-      <c r="H104" s="51" t="s">
+      <c r="H104" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I104" s="51"/>
+      <c r="I104" s="50"/>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3544,10 +3562,10 @@
         <v>15</v>
       </c>
       <c r="B105" s="49"/>
-      <c r="C105" s="50" t="s">
+      <c r="C105" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D105" s="50"/>
+      <c r="D105" s="55"/>
       <c r="E105" s="46" t="s">
         <v>160</v>
       </c>
@@ -3555,10 +3573,10 @@
         <v>37</v>
       </c>
       <c r="G105" s="49"/>
-      <c r="H105" s="51" t="s">
+      <c r="H105" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I105" s="51"/>
+      <c r="I105" s="50"/>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3610,10 +3628,10 @@
         <v>18</v>
       </c>
       <c r="B108" s="49"/>
-      <c r="C108" s="50" t="s">
+      <c r="C108" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D108" s="50"/>
+      <c r="D108" s="55"/>
       <c r="E108" s="46" t="s">
         <v>163</v>
       </c>
@@ -3628,25 +3646,25 @@
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="57" t="s">
+      <c r="A109" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B109" s="58"/>
-      <c r="C109" s="57" t="s">
+      <c r="B109" s="52"/>
+      <c r="C109" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="58"/>
+      <c r="D109" s="52"/>
       <c r="E109" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F109" s="55" t="s">
+      <c r="F109" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G109" s="55"/>
-      <c r="H109" s="59" t="s">
+      <c r="G109" s="53"/>
+      <c r="H109" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="59"/>
+      <c r="I109" s="54"/>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3731,10 +3749,10 @@
         <v>44</v>
       </c>
       <c r="G113" s="49"/>
-      <c r="H113" s="51" t="s">
+      <c r="H113" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I113" s="51"/>
+      <c r="I113" s="50"/>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3749,14 +3767,14 @@
       <c r="E114" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="F114" s="50" t="s">
+      <c r="F114" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G114" s="50"/>
-      <c r="H114" s="50" t="s">
+      <c r="G114" s="55"/>
+      <c r="H114" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I114" s="50"/>
+      <c r="I114" s="55"/>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3775,10 +3793,10 @@
         <v>46</v>
       </c>
       <c r="G115" s="49"/>
-      <c r="H115" s="51" t="s">
+      <c r="H115" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I115" s="51"/>
+      <c r="I115" s="50"/>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3797,10 +3815,10 @@
         <v>155</v>
       </c>
       <c r="G116" s="49"/>
-      <c r="H116" s="51" t="s">
+      <c r="H116" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I116" s="51"/>
+      <c r="I116" s="50"/>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3842,25 +3860,25 @@
       <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="57" t="s">
+      <c r="A120" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="58"/>
-      <c r="C120" s="57" t="s">
+      <c r="B120" s="52"/>
+      <c r="C120" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D120" s="58"/>
+      <c r="D120" s="52"/>
       <c r="E120" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F120" s="55" t="s">
+      <c r="F120" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G120" s="55"/>
-      <c r="H120" s="59" t="s">
+      <c r="G120" s="53"/>
+      <c r="H120" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I120" s="59"/>
+      <c r="I120" s="54"/>
       <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3879,10 +3897,10 @@
         <v>36</v>
       </c>
       <c r="G121" s="49"/>
-      <c r="H121" s="51" t="s">
+      <c r="H121" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I121" s="51"/>
+      <c r="I121" s="50"/>
       <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3890,10 +3908,10 @@
         <v>15</v>
       </c>
       <c r="B122" s="49"/>
-      <c r="C122" s="50" t="s">
+      <c r="C122" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="50"/>
+      <c r="D122" s="55"/>
       <c r="E122" s="46" t="s">
         <v>171</v>
       </c>
@@ -3901,10 +3919,10 @@
         <v>37</v>
       </c>
       <c r="G122" s="49"/>
-      <c r="H122" s="51" t="s">
+      <c r="H122" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I122" s="51"/>
+      <c r="I122" s="50"/>
       <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3956,10 +3974,10 @@
         <v>18</v>
       </c>
       <c r="B125" s="49"/>
-      <c r="C125" s="50" t="s">
+      <c r="C125" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D125" s="50"/>
+      <c r="D125" s="55"/>
       <c r="E125" s="46" t="s">
         <v>174</v>
       </c>
@@ -4055,10 +4073,10 @@
         <v>44</v>
       </c>
       <c r="G129" s="49"/>
-      <c r="H129" s="51" t="s">
+      <c r="H129" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I129" s="51"/>
+      <c r="I129" s="50"/>
       <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4073,14 +4091,14 @@
       <c r="E130" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="F130" s="50" t="s">
+      <c r="F130" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G130" s="50"/>
-      <c r="H130" s="50" t="s">
+      <c r="G130" s="55"/>
+      <c r="H130" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I130" s="50"/>
+      <c r="I130" s="55"/>
       <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4099,10 +4117,10 @@
         <v>46</v>
       </c>
       <c r="G131" s="49"/>
-      <c r="H131" s="51" t="s">
+      <c r="H131" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I131" s="51"/>
+      <c r="I131" s="50"/>
       <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4121,10 +4139,10 @@
         <v>155</v>
       </c>
       <c r="G132" s="49"/>
-      <c r="H132" s="51" t="s">
+      <c r="H132" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I132" s="51"/>
+      <c r="I132" s="50"/>
       <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
@@ -4166,25 +4184,25 @@
       <c r="J135" s="3"/>
     </row>
     <row r="136" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="57" t="s">
+      <c r="A136" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B136" s="58"/>
-      <c r="C136" s="57" t="s">
+      <c r="B136" s="52"/>
+      <c r="C136" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D136" s="58"/>
+      <c r="D136" s="52"/>
       <c r="E136" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F136" s="55" t="s">
+      <c r="F136" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G136" s="55"/>
-      <c r="H136" s="59" t="s">
+      <c r="G136" s="53"/>
+      <c r="H136" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I136" s="59"/>
+      <c r="I136" s="54"/>
       <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4203,10 +4221,10 @@
         <v>36</v>
       </c>
       <c r="G137" s="49"/>
-      <c r="H137" s="51" t="s">
+      <c r="H137" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I137" s="51"/>
+      <c r="I137" s="50"/>
       <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4214,10 +4232,10 @@
         <v>15</v>
       </c>
       <c r="B138" s="49"/>
-      <c r="C138" s="50" t="s">
+      <c r="C138" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D138" s="50"/>
+      <c r="D138" s="55"/>
       <c r="E138" s="46" t="s">
         <v>182</v>
       </c>
@@ -4225,10 +4243,10 @@
         <v>37</v>
       </c>
       <c r="G138" s="49"/>
-      <c r="H138" s="51" t="s">
+      <c r="H138" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I138" s="51"/>
+      <c r="I138" s="50"/>
       <c r="J138" s="3"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4280,10 +4298,10 @@
         <v>18</v>
       </c>
       <c r="B141" s="49"/>
-      <c r="C141" s="50" t="s">
+      <c r="C141" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="50"/>
+      <c r="D141" s="55"/>
       <c r="E141" s="46" t="s">
         <v>185</v>
       </c>
@@ -4379,10 +4397,10 @@
         <v>44</v>
       </c>
       <c r="G145" s="49"/>
-      <c r="H145" s="51" t="s">
+      <c r="H145" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I145" s="51"/>
+      <c r="I145" s="50"/>
       <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4397,14 +4415,14 @@
       <c r="E146" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="F146" s="50" t="s">
+      <c r="F146" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G146" s="50"/>
-      <c r="H146" s="50" t="s">
+      <c r="G146" s="55"/>
+      <c r="H146" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I146" s="50"/>
+      <c r="I146" s="55"/>
       <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4423,10 +4441,10 @@
         <v>46</v>
       </c>
       <c r="G147" s="49"/>
-      <c r="H147" s="51" t="s">
+      <c r="H147" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I147" s="51"/>
+      <c r="I147" s="50"/>
       <c r="J147" s="3"/>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4445,10 +4463,10 @@
         <v>155</v>
       </c>
       <c r="G148" s="49"/>
-      <c r="H148" s="51" t="s">
+      <c r="H148" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I148" s="51"/>
+      <c r="I148" s="50"/>
       <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4490,25 +4508,25 @@
       <c r="J151" s="3"/>
     </row>
     <row r="152" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="57" t="s">
+      <c r="A152" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B152" s="58"/>
-      <c r="C152" s="57" t="s">
+      <c r="B152" s="52"/>
+      <c r="C152" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D152" s="58"/>
+      <c r="D152" s="52"/>
       <c r="E152" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F152" s="55" t="s">
+      <c r="F152" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G152" s="55"/>
-      <c r="H152" s="59" t="s">
+      <c r="G152" s="53"/>
+      <c r="H152" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I152" s="59"/>
+      <c r="I152" s="54"/>
       <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4527,10 +4545,10 @@
         <v>36</v>
       </c>
       <c r="G153" s="49"/>
-      <c r="H153" s="51" t="s">
+      <c r="H153" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I153" s="51"/>
+      <c r="I153" s="50"/>
       <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4538,10 +4556,10 @@
         <v>15</v>
       </c>
       <c r="B154" s="49"/>
-      <c r="C154" s="50" t="s">
+      <c r="C154" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D154" s="50"/>
+      <c r="D154" s="55"/>
       <c r="E154" s="46" t="s">
         <v>193</v>
       </c>
@@ -4549,10 +4567,10 @@
         <v>37</v>
       </c>
       <c r="G154" s="49"/>
-      <c r="H154" s="51" t="s">
+      <c r="H154" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I154" s="51"/>
+      <c r="I154" s="50"/>
       <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,25 +4618,25 @@
       <c r="J156" s="3"/>
     </row>
     <row r="157" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="57" t="s">
+      <c r="A157" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B157" s="58"/>
-      <c r="C157" s="57" t="s">
+      <c r="B157" s="52"/>
+      <c r="C157" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D157" s="58"/>
+      <c r="D157" s="52"/>
       <c r="E157" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F157" s="55" t="s">
+      <c r="F157" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G157" s="55"/>
-      <c r="H157" s="59" t="s">
+      <c r="G157" s="53"/>
+      <c r="H157" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I157" s="59"/>
+      <c r="I157" s="54"/>
       <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4626,10 +4644,10 @@
         <v>18</v>
       </c>
       <c r="B158" s="49"/>
-      <c r="C158" s="50" t="s">
+      <c r="C158" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="50"/>
+      <c r="D158" s="55"/>
       <c r="E158" s="46" t="s">
         <v>196</v>
       </c>
@@ -4725,10 +4743,10 @@
         <v>44</v>
       </c>
       <c r="G162" s="49"/>
-      <c r="H162" s="51" t="s">
+      <c r="H162" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I162" s="51"/>
+      <c r="I162" s="50"/>
       <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4743,14 +4761,14 @@
       <c r="E163" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="F163" s="50" t="s">
+      <c r="F163" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G163" s="50"/>
-      <c r="H163" s="50" t="s">
+      <c r="G163" s="55"/>
+      <c r="H163" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I163" s="50"/>
+      <c r="I163" s="55"/>
       <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4769,10 +4787,10 @@
         <v>46</v>
       </c>
       <c r="G164" s="49"/>
-      <c r="H164" s="51" t="s">
+      <c r="H164" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="I164" s="51"/>
+      <c r="I164" s="50"/>
       <c r="J164" s="3"/>
     </row>
     <row r="165" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4791,10 +4809,10 @@
         <v>155</v>
       </c>
       <c r="G165" s="49"/>
-      <c r="H165" s="51" t="s">
+      <c r="H165" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="I165" s="51"/>
+      <c r="I165" s="50"/>
       <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4810,13 +4828,13 @@
       <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="71" t="s">
+      <c r="A167" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="B167" s="71"/>
-      <c r="C167" s="71"/>
-      <c r="D167" s="71"/>
-      <c r="E167" s="71"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="68"/>
       <c r="F167" s="32"/>
       <c r="G167" s="32"/>
       <c r="H167" s="24"/>
@@ -4839,88 +4857,88 @@
       <c r="A169" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B169" s="57" t="s">
+      <c r="B169" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="C169" s="58"/>
-      <c r="D169" s="55" t="s">
+      <c r="C169" s="52"/>
+      <c r="D169" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E169" s="55"/>
-      <c r="F169" s="55"/>
-      <c r="G169" s="55" t="s">
+      <c r="E169" s="53"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="H169" s="55"/>
-      <c r="I169" s="55"/>
+      <c r="H169" s="53"/>
+      <c r="I169" s="53"/>
       <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44">
         <v>1</v>
       </c>
-      <c r="B170" s="72">
+      <c r="B170" s="69">
         <v>1000</v>
       </c>
-      <c r="C170" s="73"/>
-      <c r="D170" s="80" t="s">
+      <c r="C170" s="70"/>
+      <c r="D170" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="E170" s="81"/>
-      <c r="F170" s="82"/>
-      <c r="G170" s="72">
+      <c r="E170" s="61"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="69">
         <v>-3</v>
       </c>
-      <c r="H170" s="78"/>
-      <c r="I170" s="73"/>
+      <c r="H170" s="75"/>
+      <c r="I170" s="70"/>
       <c r="J170" s="5"/>
     </row>
     <row r="171" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="45">
         <v>2</v>
       </c>
-      <c r="B171" s="74"/>
-      <c r="C171" s="75"/>
-      <c r="D171" s="80" t="s">
+      <c r="B171" s="71"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="E171" s="81"/>
-      <c r="F171" s="82"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="52"/>
-      <c r="I171" s="75"/>
+      <c r="E171" s="61"/>
+      <c r="F171" s="62"/>
+      <c r="G171" s="71"/>
+      <c r="H171" s="76"/>
+      <c r="I171" s="72"/>
       <c r="J171" s="3"/>
     </row>
     <row r="172" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="44">
         <v>3</v>
       </c>
-      <c r="B172" s="74"/>
-      <c r="C172" s="75"/>
-      <c r="D172" s="80" t="s">
+      <c r="B172" s="71"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="E172" s="81"/>
-      <c r="F172" s="82"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="52"/>
-      <c r="I172" s="75"/>
+      <c r="E172" s="61"/>
+      <c r="F172" s="62"/>
+      <c r="G172" s="71"/>
+      <c r="H172" s="76"/>
+      <c r="I172" s="72"/>
       <c r="J172" s="33"/>
     </row>
     <row r="173" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="44">
         <v>4</v>
       </c>
-      <c r="B173" s="76"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="80" t="s">
+      <c r="B173" s="73"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="E173" s="81"/>
-      <c r="F173" s="82"/>
-      <c r="G173" s="76"/>
-      <c r="H173" s="79"/>
-      <c r="I173" s="77"/>
+      <c r="E173" s="61"/>
+      <c r="F173" s="62"/>
+      <c r="G173" s="73"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="74"/>
       <c r="J173" s="3"/>
     </row>
     <row r="174" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4941,37 +4959,37 @@
       </c>
     </row>
     <row r="176" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="57" t="s">
+      <c r="A176" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="B176" s="87"/>
-      <c r="C176" s="58"/>
-      <c r="D176" s="57" t="s">
+      <c r="B176" s="63"/>
+      <c r="C176" s="52"/>
+      <c r="D176" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E176" s="87"/>
-      <c r="F176" s="58"/>
-      <c r="G176" s="57" t="s">
+      <c r="E176" s="63"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="H176" s="87"/>
-      <c r="I176" s="58"/>
+      <c r="H176" s="63"/>
+      <c r="I176" s="52"/>
       <c r="J176" s="38"/>
     </row>
     <row r="177" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="88">
+      <c r="A177" s="64">
         <v>10000000</v>
       </c>
-      <c r="B177" s="89"/>
-      <c r="C177" s="90"/>
-      <c r="D177" s="91"/>
-      <c r="E177" s="89"/>
-      <c r="F177" s="90"/>
-      <c r="G177" s="91">
+      <c r="B177" s="65"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="65"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="67">
         <v>100</v>
       </c>
-      <c r="H177" s="89"/>
-      <c r="I177" s="90"/>
+      <c r="H177" s="65"/>
+      <c r="I177" s="66"/>
       <c r="J177" s="38"/>
     </row>
     <row r="178" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5016,18 +5034,18 @@
       <c r="J181" s="38"/>
     </row>
     <row r="182" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="71" t="s">
+      <c r="A182" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="B182" s="71"/>
-      <c r="C182" s="71"/>
-      <c r="D182" s="71"/>
-      <c r="E182" s="71"/>
-      <c r="F182" s="71"/>
-      <c r="G182" s="71"/>
-      <c r="H182" s="71"/>
-      <c r="I182" s="71"/>
-      <c r="J182" s="71"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="68"/>
+      <c r="F182" s="68"/>
+      <c r="G182" s="68"/>
+      <c r="H182" s="68"/>
+      <c r="I182" s="68"/>
+      <c r="J182" s="68"/>
     </row>
     <row r="183" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="32"/>
@@ -5056,82 +5074,82 @@
       <c r="J184" s="3"/>
     </row>
     <row r="185" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="68" t="s">
+      <c r="A185" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B185" s="69"/>
-      <c r="C185" s="55" t="s">
+      <c r="B185" s="81"/>
+      <c r="C185" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55" t="s">
+      <c r="D185" s="53"/>
+      <c r="E185" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F185" s="55"/>
-      <c r="G185" s="55" t="s">
+      <c r="F185" s="53"/>
+      <c r="G185" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="H185" s="55"/>
+      <c r="H185" s="53"/>
       <c r="I185" s="22"/>
       <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="68" t="s">
+      <c r="A186" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B186" s="69"/>
-      <c r="C186" s="54" t="s">
+      <c r="B186" s="81"/>
+      <c r="C186" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D186" s="54"/>
-      <c r="E186" s="55" t="s">
+      <c r="D186" s="78"/>
+      <c r="E186" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F186" s="55"/>
-      <c r="G186" s="56" t="s">
+      <c r="F186" s="53"/>
+      <c r="G186" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H186" s="56"/>
+      <c r="H186" s="79"/>
       <c r="I186" s="22"/>
       <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="68" t="s">
+      <c r="A187" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B187" s="69"/>
-      <c r="C187" s="54" t="s">
+      <c r="B187" s="81"/>
+      <c r="C187" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D187" s="54"/>
-      <c r="E187" s="55" t="s">
+      <c r="D187" s="78"/>
+      <c r="E187" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F187" s="55"/>
-      <c r="G187" s="56" t="s">
+      <c r="F187" s="53"/>
+      <c r="G187" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H187" s="56"/>
+      <c r="H187" s="79"/>
       <c r="I187" s="22"/>
       <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="68" t="s">
+      <c r="A188" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B188" s="69"/>
-      <c r="C188" s="54" t="s">
+      <c r="B188" s="81"/>
+      <c r="C188" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D188" s="54"/>
-      <c r="E188" s="55" t="s">
+      <c r="D188" s="78"/>
+      <c r="E188" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F188" s="55"/>
-      <c r="G188" s="56" t="s">
+      <c r="F188" s="53"/>
+      <c r="G188" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H188" s="56"/>
+      <c r="H188" s="79"/>
       <c r="I188" s="22"/>
       <c r="J188" s="3"/>
     </row>
@@ -5172,101 +5190,101 @@
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="68" t="s">
+      <c r="A192" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B192" s="69"/>
-      <c r="C192" s="55" t="s">
+      <c r="B192" s="81"/>
+      <c r="C192" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="D192" s="55"/>
-      <c r="E192" s="55" t="s">
+      <c r="D192" s="53"/>
+      <c r="E192" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F192" s="55"/>
-      <c r="G192" s="55" t="s">
+      <c r="F192" s="53"/>
+      <c r="G192" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="H192" s="55"/>
+      <c r="H192" s="53"/>
       <c r="I192" s="25"/>
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="68" t="s">
+      <c r="A193" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B193" s="69"/>
-      <c r="C193" s="54" t="s">
+      <c r="B193" s="81"/>
+      <c r="C193" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D193" s="54"/>
-      <c r="E193" s="55" t="s">
+      <c r="D193" s="78"/>
+      <c r="E193" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="F193" s="55"/>
-      <c r="G193" s="56" t="s">
+      <c r="F193" s="53"/>
+      <c r="G193" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H193" s="56"/>
+      <c r="H193" s="79"/>
       <c r="I193" s="25"/>
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="68" t="s">
+      <c r="A194" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B194" s="69"/>
-      <c r="C194" s="54" t="s">
+      <c r="B194" s="81"/>
+      <c r="C194" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D194" s="54"/>
-      <c r="E194" s="55" t="s">
+      <c r="D194" s="78"/>
+      <c r="E194" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="F194" s="55"/>
-      <c r="G194" s="56" t="s">
+      <c r="F194" s="53"/>
+      <c r="G194" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H194" s="56"/>
+      <c r="H194" s="79"/>
       <c r="I194" s="25"/>
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="68" t="s">
+      <c r="A195" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B195" s="69"/>
-      <c r="C195" s="54" t="s">
+      <c r="B195" s="81"/>
+      <c r="C195" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D195" s="54"/>
-      <c r="E195" s="55" t="s">
+      <c r="D195" s="78"/>
+      <c r="E195" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F195" s="55"/>
-      <c r="G195" s="56" t="s">
+      <c r="F195" s="53"/>
+      <c r="G195" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="H195" s="56"/>
+      <c r="H195" s="79"/>
       <c r="I195" s="25"/>
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="35"/>
-      <c r="C196" s="52"/>
-      <c r="D196" s="52"/>
-      <c r="E196" s="52"/>
-      <c r="F196" s="52"/>
-      <c r="G196" s="53"/>
-      <c r="H196" s="53"/>
+      <c r="C196" s="76"/>
+      <c r="D196" s="76"/>
+      <c r="E196" s="76"/>
+      <c r="F196" s="76"/>
+      <c r="G196" s="93"/>
+      <c r="H196" s="93"/>
       <c r="I196" s="22"/>
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="83" t="s">
+      <c r="A197" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="B197" s="83"/>
+      <c r="B197" s="56"/>
       <c r="C197" s="47" t="s">
         <v>144</v>
       </c>
@@ -5279,18 +5297,18 @@
       <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="83" t="s">
+      <c r="A198" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B198" s="83"/>
+      <c r="B198" s="56"/>
       <c r="C198" s="42"/>
       <c r="D198" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="E198" s="84" t="s">
+      <c r="E198" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F198" s="85"/>
+      <c r="F198" s="58"/>
       <c r="G198" s="38" t="s">
         <v>148</v>
       </c>
@@ -5299,14 +5317,14 @@
       <c r="J198" s="3"/>
     </row>
     <row r="199" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="83" t="s">
+      <c r="A199" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B199" s="83"/>
-      <c r="C199" s="86" t="s">
+      <c r="B199" s="56"/>
+      <c r="C199" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="D199" s="86"/>
+      <c r="D199" s="59"/>
       <c r="E199" s="3"/>
       <c r="F199" s="5"/>
       <c r="G199" s="3"/>
@@ -5329,15 +5347,487 @@
     <row r="206" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="514">
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="E196:F196"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="E195:F195"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="A182:J182"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="E192:F192"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="B170:C173"/>
+    <mergeCell ref="G170:I173"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="D171:F171"/>
+    <mergeCell ref="D172:F172"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="G169:I169"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="A99:J99"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="F161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="F163:G163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="A176:C176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="G176:I176"/>
+    <mergeCell ref="A177:C177"/>
+    <mergeCell ref="D177:F177"/>
+    <mergeCell ref="G177:I177"/>
     <mergeCell ref="H109:I109"/>
     <mergeCell ref="A115:B115"/>
     <mergeCell ref="C115:D115"/>
@@ -5362,487 +5852,15 @@
     <mergeCell ref="A127:B127"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="F127:G127"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="F163:G163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="A176:C176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="G176:I176"/>
-    <mergeCell ref="A177:C177"/>
-    <mergeCell ref="D177:F177"/>
-    <mergeCell ref="G177:I177"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="A99:J99"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="F161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="B170:C173"/>
-    <mergeCell ref="G170:I173"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="D171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="G169:I169"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="E193:F193"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="A182:J182"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="E192:F192"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="E196:F196"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="E195:F195"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="B169:C169"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.19685039370078741"/>
